--- a/70000029-cdo_appian-T2PRJ0405368-Alojables-tmp/Alojables/tmp/content/_a-0000eb09-d442-8000-e687-01ef9001ef90_8738165/file.xlsx
+++ b/70000029-cdo_appian-T2PRJ0405368-Alojables-tmp/Alojables/tmp/content/_a-0000eb09-d442-8000-e687-01ef9001ef90_8738165/file.xlsx
@@ -26,7 +26,7 @@
     <numFmt numFmtId="169" formatCode="MMM d, yyyy"/>
     <numFmt numFmtId="170" formatCode="MMM d, yyyy h:mm AM/PM"/>
   </numFmts>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +174,28 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -824,7 +846,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="993">
+  <cellXfs count="1069">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3644,6 +3666,222 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4001,7 +4239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4121,11 +4359,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>496732.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>60621468327</t>
+          <t>00010694157</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4135,25 +4373,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BCOM369(Productos Comercializables)</t>
+          <t>Perfil</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60621468327-25_34_35__28-05-2021_141109.pdf</t>
-        </is>
-      </c>
-      <c r="F2" s="975" t="n">
-        <v>44344.0</v>
+          <t>00010694157_4P0D_2024-06-21 12_54_07.jpg</t>
+        </is>
+      </c>
+      <c r="F2" s="1051" t="n">
+        <v>45464.0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10639</t>
+          <t>4P0D</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4198,7 +4436,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2805212517345</t>
+          <t/>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -4209,11 +4447,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>496733.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>60621468327</t>
+          <t>2001512</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4223,39 +4461,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Documentos Demanda Nota EuroStoxx50</t>
+          <t>Perfil</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>60621468327-25_34_35__28-05-2021_141109.pdf</t>
-        </is>
-      </c>
-      <c r="F3" s="975" t="n">
-        <v>44344.0</v>
+          <t>2001512_4P0D_2024-06-04 08_56_57.png</t>
+        </is>
+      </c>
+      <c r="F3" s="1051" t="n">
+        <v>45447.0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10639</t>
+          <t>4P0D</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>250988</t>
-        </is>
-      </c>
-      <c r="K3" s="975" t="n">
-        <v>44344.0</v>
+          <t/>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -4295,41 +4535,39 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>497554.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>60621468327</t>
+          <t>2112203</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEON NAVA FRANCISCO JAVIER</t>
+          <t/>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t/>
+          <t>Perfil</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>No Disponible.png</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>2112203_4P0D_2024-06-21 12_25_10.jpg</t>
+        </is>
+      </c>
+      <c r="F4" s="1051" t="n">
+        <v>45464.0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t/>
+          <t>4P0D</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t/>
+          <t>2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -4349,27 +4587,27 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>PENDIENTE POR IMAGEN. SUBIDO DATOS DE CC: 28/052021</t>
+          <t/>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20210528</t>
+          <t/>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t/>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>VIGENTE</t>
+          <t/>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>20210528</t>
+          <t/>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -4385,11 +4623,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>516246.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>60621468327</t>
+          <t>0124</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4399,20 +4637,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Convenio Modificatorio CMOF  SOFR  JUR-983</t>
+          <t>Perfil</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>60621468327_EM16_2023-12-26 11_22_44.txt</t>
-        </is>
-      </c>
-      <c r="F5" s="975" t="n">
-        <v>45286.0</v>
+          <t>0124_n1996_2024-06-24 16_17_30.csv</t>
+        </is>
+      </c>
+      <c r="F5" s="1051" t="n">
+        <v>45467.0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>EM16</t>
+          <t>n1996</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -4466,6 +4704,2958 @@
         </is>
       </c>
       <c r="R5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Perfil</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0149_n1996_2024-06-27 11_51_14.pdf</t>
+        </is>
+      </c>
+      <c r="F6" s="1051" t="n">
+        <v>45470.0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K6" s="1051" t="n">
+        <v>45470.0</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0134</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Perfil</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>documento_prueba1.docx</t>
+        </is>
+      </c>
+      <c r="F7" s="1051" t="n">
+        <v>45468.0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K7" s="1051" t="n">
+        <v>45468.0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0167</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Perfil</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0167_n1996_2024-07-01 09_51_35.pdf</t>
+        </is>
+      </c>
+      <c r="F8" s="1051" t="n">
+        <v>45474.0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K8" s="1051" t="n">
+        <v>45476.0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Perfil</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0171_n1996_2024-07-03 13_33_57.pdf</t>
+        </is>
+      </c>
+      <c r="F9" s="1051" t="n">
+        <v>45476.0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K9" s="1051" t="n">
+        <v>45476.0</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0169</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Perfil</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0169_n1996_2024-07-03 15_42_25.pdf</t>
+        </is>
+      </c>
+      <c r="F10" s="1051" t="n">
+        <v>45476.0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2112203</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Adendum(BCOM523)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2112203_4P0D_2024-06-21 12_25_10</t>
+        </is>
+      </c>
+      <c r="F11" s="1051" t="n">
+        <v>45464.0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4P0D</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>56785678</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0124</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Adendum(BCOM523)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0124_n1996_2024-06-24 16_17_30</t>
+        </is>
+      </c>
+      <c r="F12" s="1051" t="n">
+        <v>45467.0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Adendum(BCOM523)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0130_n1996_2024-06-24 18_56_19.xlsx</t>
+        </is>
+      </c>
+      <c r="F13" s="1051" t="n">
+        <v>45467.0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K13" s="1051" t="n">
+        <v>45468.0</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Adendum(BCOM523)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0171_n1996_2024-07-03 13_33_57</t>
+        </is>
+      </c>
+      <c r="F14" s="1051" t="n">
+        <v>45476.0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K14" s="1051" t="n">
+        <v>45476.0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0169</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Adendum(BCOM523)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0169_n1996_2024-07-03 15_42_25</t>
+        </is>
+      </c>
+      <c r="F15" s="1051" t="n">
+        <v>45476.0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Adendum(BCOM523)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0145_n1996_2024-06-26 14_22_06.crdownload</t>
+        </is>
+      </c>
+      <c r="F16" s="1051" t="n">
+        <v>45469.0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K16" s="1051" t="n">
+        <v>45469.0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0171</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>BCOM515 (Exclusivo Interventoria Corporativa)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0171_n1996_2024-07-03 13_33_57</t>
+        </is>
+      </c>
+      <c r="F17" s="1051" t="n">
+        <v>45476.0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K17" s="1051" t="n">
+        <v>45476.0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0130</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>BCOM515 (Exclusivo Interventoria Corporativa)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0130_n1996_2024-06-25 13_00_43.docx</t>
+        </is>
+      </c>
+      <c r="F18" s="1051" t="n">
+        <v>45468.0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K18" s="1051" t="n">
+        <v>45468.0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0124</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>BCOM515 (Exclusivo Interventoria Corporativa)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0124_n1996_2024-06-24 16_17_30</t>
+        </is>
+      </c>
+      <c r="F19" s="1051" t="n">
+        <v>45467.0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>00010694157</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Nota Range Accrual</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>00010694157_4P0D_2024-06-21 12_54_07</t>
+        </is>
+      </c>
+      <c r="F20" s="1051" t="n">
+        <v>45464.0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>4P0D</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>C040231</t>
+        </is>
+      </c>
+      <c r="K20" s="1051" t="n">
+        <v>45464.0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0124</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Nota Range Accrual</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0124_n1996_2024-06-24 16_17_30</t>
+        </is>
+      </c>
+      <c r="F21" s="1051" t="n">
+        <v>45467.0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0149</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Nota Range Accrual</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0149_n1996_2024-06-27 11_51_14</t>
+        </is>
+      </c>
+      <c r="F22" s="1051" t="n">
+        <v>45470.0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K22" s="1051" t="n">
+        <v>45470.0</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0124</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Nota Range Accrual KO</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0124_n1996_2024-06-24 16_17_30</t>
+        </is>
+      </c>
+      <c r="F23" s="1051" t="n">
+        <v>45467.0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Nota Range Accrual KO</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0175_n1996_2024-07-03 13_42_08.pdf</t>
+        </is>
+      </c>
+      <c r="F24" s="1051" t="n">
+        <v>45476.0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0175</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Nota Wedding Cake</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0175_n1996_2024-07-03 13_42_08</t>
+        </is>
+      </c>
+      <c r="F25" s="1051" t="n">
+        <v>45476.0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0124</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Nota Wedding Cake</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0124_n1996_2024-06-24 16_17_30</t>
+        </is>
+      </c>
+      <c r="F26" s="1051" t="n">
+        <v>45467.0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>00045944961</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Nota Doble Barrera</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>00045944961_4P0D_2024-06-21 12_26_54.jpg</t>
+        </is>
+      </c>
+      <c r="F27" s="1051" t="n">
+        <v>45464.0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>4P0D</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0124</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Nota Doble Barrera</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0124_n1996_2024-06-24 18_50_28.xlsx</t>
+        </is>
+      </c>
+      <c r="F28" s="1051" t="n">
+        <v>45467.0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0168</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Nota Inversion Sintetica</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0168_n1996_2024-07-01 09_31_52.pdf</t>
+        </is>
+      </c>
+      <c r="F29" s="1051" t="n">
+        <v>45474.0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K29" s="1051" t="n">
+        <v>45474.0</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>00045944961</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Nota Inversion Sintetica</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>00045944961_4P0D_2024-06-21 12_26_54</t>
+        </is>
+      </c>
+      <c r="F30" s="1051" t="n">
+        <v>45464.0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>4P0D</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0124</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Nota Inversion Sintetica</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0124_n1996_2024-06-24 18_50_28</t>
+        </is>
+      </c>
+      <c r="F31" s="1051" t="n">
+        <v>45467.0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K31" s="1051" t="n">
+        <v>45470.0</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0137</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PROSPECTO UNICO</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0137_n1996_2024-06-26 12_33_59.html</t>
+        </is>
+      </c>
+      <c r="F32" s="1051" t="n">
+        <v>45469.0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K32" s="1051" t="n">
+        <v>45469.0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0124</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PROSPECTO UNICO</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0124_n1996_2024-06-24 18_50_28</t>
+        </is>
+      </c>
+      <c r="F33" s="1051" t="n">
+        <v>45467.0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K33" s="1051" t="n">
+        <v>45468.0</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0162</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Nota Dual</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0162_n1996_2024-06-28 17_14_04.sql</t>
+        </is>
+      </c>
+      <c r="F34" s="1051" t="n">
+        <v>45471.0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K34" s="1051" t="n">
+        <v>45474.0</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0137</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Carta Cliente Sofisticado</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0137_n1996_2024-06-26 11_57_28.docx</t>
+        </is>
+      </c>
+      <c r="F35" s="1051" t="n">
+        <v>45469.0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K35" s="1051" t="n">
+        <v>45469.0</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0137</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Carta Confirmacion Nota Dual</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0137_n1996_2024-06-26 12_25_49.pdf</t>
+        </is>
+      </c>
+      <c r="F36" s="1051" t="n">
+        <v>45469.0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K36" s="1051" t="n">
+        <v>45469.0</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0134</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>JUR 966 Carta Actualizacion 1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NO_DOCUMENTAL_CONTRATO.png</t>
+        </is>
+      </c>
+      <c r="F37" s="1051" t="n">
+        <v>45470.0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K37" s="1051" t="n">
+        <v>45474.0</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0125</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>JUR 966 Carta Actualizacion 1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0125_n1996_2024-06-24 17_32_34.png</t>
+        </is>
+      </c>
+      <c r="F38" s="1051" t="n">
+        <v>45467.0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0124</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>JUR 966 Carta Actualizacion 3</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0124_n1996_2024-06-24 19_36_47.png</t>
+        </is>
+      </c>
+      <c r="F39" s="1051" t="n">
+        <v>45467.0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>n1996</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>z619191</t>
+        </is>
+      </c>
+      <c r="K39" s="1051" t="n">
+        <v>45468.0</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
         <is>
           <t/>
         </is>
